--- a/biology/Biologie cellulaire et moléculaire/Caséine_kinase_1_alpha/Caséine_kinase_1_alpha.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Caséine_kinase_1_alpha/Caséine_kinase_1_alpha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cas%C3%A9ine_kinase_1_alpha</t>
+          <t>Caséine_kinase_1_alpha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La caséine kinase 1 alpha est l'une des isoformes de caséine kinase 1. Son gène, CSNK1A1, est situé sur le chromosome 5 humain.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cas%C3%A9ine_kinase_1_alpha</t>
+          <t>Caséine_kinase_1_alpha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a une action inhibitrice sur la voie du TP53[5]. Il joue un rôle de gène suppresseur de tumeurs[6]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a une action inhibitrice sur la voie du TP53. Il joue un rôle de gène suppresseur de tumeurs. 
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cas%C3%A9ine_kinase_1_alpha</t>
+          <t>Caséine_kinase_1_alpha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Cible thérapeutique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un inhibiteur de la protéine est en cours de développement qui a une action sur un modèle animal de leucémie aiguë myéloblastique[7]. Le lénalidomide, un médicament utilisé dans le traitement du myélome multiple, augmente sa dégradation par ubiquitination[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un inhibiteur de la protéine est en cours de développement qui a une action sur un modèle animal de leucémie aiguë myéloblastique. Le lénalidomide, un médicament utilisé dans le traitement du myélome multiple, augmente sa dégradation par ubiquitination.
 </t>
         </is>
       </c>
